--- a/icd_example.xlsx
+++ b/icd_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw.sharepoint.com/sites/MattMillerPhD/Shared Documents/General/Urgent Surgery Study/R scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_CD1249A6755C13F0C662992B2ECAEB991BFA3734" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8E02DA7-65A9-9B4E-81E8-D63CFF8A6FBD}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_CD1249A6755C13F0C662992B2ECAEB991BFA3734" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E56801B3-A270-BD41-8846-F59EE4580E08}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="21540" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>record_id</t>
   </si>
@@ -488,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:C22"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -686,41 +686,6 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -728,6 +693,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001EF6A4E0665E0E448C53ED4AB7FFACFA" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5ac94d290b3ea8506fc1e1cab319d65d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6ba11eba-1ec9-4386-ab43-777f0cd42b4b" xmlns:ns3="0505a1d8-33b5-4412-a69e-13a1819f219c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9e7720a62caeb3b19928ef7949c79464" ns2:_="" ns3:_="">
     <xsd:import namespace="6ba11eba-1ec9-4386-ab43-777f0cd42b4b"/>
@@ -976,16 +950,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59074367-2D53-4126-BB40-878A946E5EF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D6C607D-0BFE-4CE1-9B9E-AAC954698CDF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1002,12 +975,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59074367-2D53-4126-BB40-878A946E5EF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>